--- a/hebrewOutputs/hebrew82Comperation_12_Common_alpha=0.38.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_12_Common_alpha=0.38.xlsx
@@ -79,12 +79,12 @@
     <t>gives-other</t>
   </si>
   <si>
+    <t>agree</t>
+  </si>
+  <si>
     <t>אתה בחדר הנכון.</t>
   </si>
   <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>שלום לך קוראים לי דוק.</t>
   </si>
   <si>
@@ -283,43 +283,43 @@
     <t>מדאיגות?</t>
   </si>
   <si>
+    <t>אז אני אז אני לקרוא לבעלי או לא? אני עכשיו כבר לא כל כך יודעת.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> אני מנסה להבין. מה מה קרה? </t>
+  </si>
+  <si>
+    <t>אא,</t>
+  </si>
+  <si>
+    <t>וואוו.</t>
+  </si>
+  <si>
+    <t>התוצאות שהיו לנו אא בבדיקות הם הם אומרים לנו שרונן- שיואב,</t>
+  </si>
+  <si>
+    <t>הבן שלי יואב.</t>
+  </si>
+  <si>
+    <t>יואב הם,</t>
+  </si>
+  <si>
+    <t>יואב הוא ילד בן חמש.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כן ילד בן חמש. </t>
+  </si>
+  <si>
+    <t>מה מצאו? מה קרה?</t>
+  </si>
+  <si>
+    <t>יש לו סכרת.</t>
+  </si>
+  <si>
+    <t>מה יש לו?</t>
+  </si>
+  <si>
     <t>[?]med</t>
-  </si>
-  <si>
-    <t>אז אני אז אני לקרוא לבעלי או לא? אני עכשיו כבר לא כל כך יודעת.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> אני מנסה להבין. מה מה קרה? </t>
-  </si>
-  <si>
-    <t>אא,</t>
-  </si>
-  <si>
-    <t>וואוו.</t>
-  </si>
-  <si>
-    <t>התוצאות שהיו לנו אא בבדיקות הם הם אומרים לנו שרונן- שיואב,</t>
-  </si>
-  <si>
-    <t>הבן שלי יואב.</t>
-  </si>
-  <si>
-    <t>יואב הם,</t>
-  </si>
-  <si>
-    <t>יואב הוא ילד בן חמש.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">כן ילד בן חמש. </t>
-  </si>
-  <si>
-    <t>מה מצאו? מה קרה?</t>
-  </si>
-  <si>
-    <t>יש לו סכרת.</t>
-  </si>
-  <si>
-    <t>מה יש לו?</t>
   </si>
   <si>
     <t>סכרת. סכרת נעורים זה אחד מסוגי הסכרת שעלול גם לגרום לילדים קטנים זה להופיע בגיל הזה אא זה ...</t>
@@ -834,7 +834,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -932,7 +932,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -940,10 +940,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -960,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -1016,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -1069,7 +1069,7 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -1293,7 +1293,7 @@
         <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -1363,10 +1363,10 @@
         <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1447,7 +1447,7 @@
         <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -1517,7 +1517,7 @@
         <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -1562,7 +1562,7 @@
         <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -1716,7 +1716,7 @@
         <v>48</v>
       </c>
       <c r="C66" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
         <v>77</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
         <v>27</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B69" t="s">
         <v>12</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
         <v>48</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
@@ -1822,13 +1822,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B74" t="s">
         <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
@@ -1836,10 +1836,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B76" t="s">
         <v>27</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B77" t="s">
         <v>44</v>
@@ -1878,13 +1878,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -2007,7 +2007,7 @@
         <v>110</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
@@ -2049,7 +2049,7 @@
         <v>114</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C90" t="s">
         <v>40</v>
@@ -2066,7 +2066,7 @@
         <v>44</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
@@ -2175,7 +2175,7 @@
         <v>123</v>
       </c>
       <c r="B99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
@@ -2206,7 +2206,7 @@
         <v>27</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
@@ -2234,7 +2234,7 @@
         <v>27</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -2273,7 +2273,7 @@
         <v>130</v>
       </c>
       <c r="B106" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C106" t="s">
         <v>44</v>
@@ -2360,7 +2360,7 @@
         <v>27</v>
       </c>
       <c r="C112" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="D112" t="s">
         <v>7</v>
@@ -2374,7 +2374,7 @@
         <v>44</v>
       </c>
       <c r="C113" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D113" t="s">
         <v>9</v>
@@ -2388,7 +2388,7 @@
         <v>27</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
@@ -2402,7 +2402,7 @@
         <v>44</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D115" t="s">
         <v>9</v>
@@ -2441,7 +2441,7 @@
         <v>142</v>
       </c>
       <c r="B118" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C118" t="s">
         <v>6</v>
@@ -2455,10 +2455,10 @@
         <v>60</v>
       </c>
       <c r="B119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D119" t="s">
         <v>9</v>
@@ -2469,10 +2469,10 @@
         <v>143</v>
       </c>
       <c r="B120" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C120" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D120" t="s">
         <v>7</v>
@@ -2483,7 +2483,7 @@
         <v>144</v>
       </c>
       <c r="B121" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C121" t="s">
         <v>12</v>
